--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -170,12 +175,15 @@
   </si>
   <si>
     <t>FourWeekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -265,13 +273,16 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -320,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,9 +364,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -388,6 +416,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -563,22 +608,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -592,7 +637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -606,7 +651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -620,7 +665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -634,7 +679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -648,15 +693,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
       <c r="C8" s="2"/>
     </row>
@@ -667,24 +712,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="83.109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.44140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="83.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -707,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -724,7 +769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -741,7 +786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -758,7 +803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -775,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -792,7 +837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -809,7 +854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -826,7 +871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -843,7 +888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -867,29 +912,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.21875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -930,7 +975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>49</v>
       </c>
@@ -965,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>49</v>
       </c>
@@ -1001,7 +1046,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
@@ -1037,7 +1082,7 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
@@ -1073,7 +1118,7 @@
       </c>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
@@ -1109,7 +1154,7 @@
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
@@ -1145,7 +1190,7 @@
       </c>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -1181,7 +1226,7 @@
       </c>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
@@ -1217,7 +1262,7 @@
       </c>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>49</v>
       </c>
@@ -1255,15 +1300,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
@@ -1271,29 +1316,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.33203125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.33203125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.44140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.21875" style="6" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1337,7 +1382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>49</v>
       </c>
@@ -1360,7 +1405,7 @@
         <v>38</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>43</v>
@@ -1377,7 +1422,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI4WeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI4WeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="52">
   <si>
     <t>TC</t>
   </si>
@@ -184,6 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,52 +232,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -293,10 +294,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -331,7 +332,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -383,7 +384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -488,7 +489,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -497,13 +498,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -513,7 +514,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -522,7 +523,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -531,7 +532,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -541,12 +542,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -577,7 +578,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -596,7 +597,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -608,7 +609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -617,10 +618,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -651,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>45</v>
       </c>
@@ -665,7 +666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -679,7 +680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -696,7 +697,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
@@ -706,13 +707,13 @@
       <c r="C8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -721,12 +722,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="83.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="83.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -906,13 +907,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -921,20 +922,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -975,7 +976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.15" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>49</v>
       </c>
@@ -1010,7 +1011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>49</v>
       </c>
@@ -1046,7 +1047,7 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>49</v>
       </c>
@@ -1082,7 +1083,7 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>49</v>
       </c>
@@ -1118,7 +1119,7 @@
       </c>
       <c r="L5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>49</v>
       </c>
@@ -1154,7 +1155,7 @@
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>49</v>
       </c>
@@ -1190,7 +1191,7 @@
       </c>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>49</v>
       </c>
@@ -1226,7 +1227,7 @@
       </c>
       <c r="L8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>49</v>
       </c>
@@ -1262,7 +1263,7 @@
       </c>
       <c r="L9" s="11"/>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>49</v>
       </c>
@@ -1300,23 +1301,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId10" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
@@ -1325,20 +1326,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" style="6" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="6" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>49</v>
       </c>
@@ -1422,9 +1423,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="30"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="first" r:id="rId1" sheetId="1"/>
-    <sheet name="NI4WeeklyCat_B" r:id="rId2" sheetId="2"/>
-    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
-    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
+    <sheet name="first" sheetId="1" r:id="rId1"/>
+    <sheet name="NI4WeeklyCat_B" sheetId="2" r:id="rId2"/>
+    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
+    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\Payroll Tax Test Report 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
   </si>
   <si>
     <t>NI4WeeklyCat_B</t>
@@ -183,8 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,52 +228,52 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -294,10 +290,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -332,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +380,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -489,7 +485,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -498,13 +494,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -514,7 +510,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -523,7 +519,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -532,7 +528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -542,12 +538,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -578,7 +574,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -597,7 +593,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -609,7 +605,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -618,10 +614,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
+    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -652,9 +648,9 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -666,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -680,7 +676,7 @@
         <v>6</v>
       </c>
     </row>
-    <row customFormat="1" ht="45" r="5" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
@@ -697,7 +693,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
-    <row customFormat="1" r="7" s="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
@@ -707,13 +703,13 @@
       <c r="C8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -722,12 +718,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="83.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="5" width="18.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="83.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -758,7 +754,7 @@
         <v>12</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="13">
         <v>8164.52</v>
@@ -775,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" s="13">
         <v>8164.65</v>
@@ -792,7 +788,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="13">
         <v>8165.3</v>
@@ -809,7 +805,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="13">
         <v>8165.43</v>
@@ -826,7 +822,7 @@
         <v>16</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="13">
         <v>45006.52</v>
@@ -843,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C7" s="13">
         <v>45006.65</v>
@@ -860,7 +856,7 @@
         <v>18</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="13">
         <v>45009.77</v>
@@ -877,7 +873,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="13">
         <v>45009.9</v>
@@ -894,7 +890,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="13">
         <v>63050</v>
@@ -907,35 +903,35 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -976,15 +972,15 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="31.15" r="2" s="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>23</v>
@@ -993,13 +989,13 @@
         <v>41</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>39</v>
@@ -1011,15 +1007,15 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>23</v>
@@ -1028,13 +1024,13 @@
         <v>41</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>39</v>
@@ -1047,15 +1043,15 @@
       </c>
       <c r="L3" s="11"/>
     </row>
-    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>23</v>
@@ -1064,13 +1060,13 @@
         <v>41</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>39</v>
@@ -1083,15 +1079,15 @@
       </c>
       <c r="L4" s="11"/>
     </row>
-    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>23</v>
@@ -1100,13 +1096,13 @@
         <v>41</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>39</v>
@@ -1119,15 +1115,15 @@
       </c>
       <c r="L5" s="11"/>
     </row>
-    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>23</v>
@@ -1136,13 +1132,13 @@
         <v>41</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>39</v>
@@ -1155,15 +1151,15 @@
       </c>
       <c r="L6" s="11"/>
     </row>
-    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>23</v>
@@ -1172,13 +1168,13 @@
         <v>41</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>39</v>
@@ -1191,15 +1187,15 @@
       </c>
       <c r="L7" s="11"/>
     </row>
-    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>23</v>
@@ -1208,13 +1204,13 @@
         <v>41</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>39</v>
@@ -1227,15 +1223,15 @@
       </c>
       <c r="L8" s="11"/>
     </row>
-    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>23</v>
@@ -1244,13 +1240,13 @@
         <v>41</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I9" s="9" t="s">
         <v>39</v>
@@ -1263,15 +1259,15 @@
       </c>
       <c r="L9" s="11"/>
     </row>
-    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>23</v>
@@ -1280,13 +1276,13 @@
         <v>41</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>39</v>
@@ -1301,45 +1297,45 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId10" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="6" width="26.28515625" collapsed="true"/>
+    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="6" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -1383,15 +1379,15 @@
         <v>10</v>
       </c>
     </row>
-    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>23</v>
@@ -1400,13 +1396,13 @@
         <v>41</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>38</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>43</v>
@@ -1415,7 +1411,7 @@
         <v>40</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>5</v>
@@ -1423,9 +1419,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId2" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
     <sheet name="TestReports" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -60,33 +60,6 @@
     <t>PayrollFrequency</t>
   </si>
   <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 101</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 102</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 103</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 104</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 105</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 106</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 107</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 108</t>
-  </si>
-  <si>
-    <t>DO NOT TOUCH AUTOMATION EMP 109</t>
-  </si>
-  <si>
     <t>TestReports</t>
   </si>
   <si>
@@ -168,13 +141,40 @@
     <t>15</t>
   </si>
   <si>
-    <t>DO NOT TOUCH PAYROLL AUTOMATION EMPLOYER_17/18</t>
-  </si>
-  <si>
-    <t>FourWeekly_Payroll</t>
-  </si>
-  <si>
     <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201718\\201718 Payroll National Insurance calculation Test result.xlsx</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 503</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 504</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 505</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 506</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 507</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 508</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 509</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 510</t>
+  </si>
+  <si>
+    <t>DO NOT TOUCH AUTOMATION EMP 511</t>
+  </si>
+  <si>
+    <t>DONT TOUCH AUTO NI4WCB EMPLOYER</t>
+  </si>
+  <si>
+    <t>NI4WCB_Payroll</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -241,7 +241,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -253,9 +252,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -265,7 +261,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -636,10 +633,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -648,9 +645,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -662,26 +659,26 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>26</v>
+    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
@@ -693,7 +690,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
@@ -713,7 +710,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A2" sqref="A2:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -721,7 +718,7 @@
     <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="83.140625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
@@ -750,153 +747,153 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="11">
+        <v>8164.52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="11">
+        <v>8164.65</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="11">
+        <v>8165.3</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="11">
+        <v>8165.43</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="11">
+        <v>45006.52</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="13">
-        <v>8164.52</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="13">
-        <v>8164.65</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="13">
-        <v>8165.3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="11">
+        <v>45006.65</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="13">
-        <v>8165.43</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="13">
-        <v>45006.52</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="13">
-        <v>45006.65</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="13">
+      <c r="A8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="11">
         <v>45009.77</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>24</v>
+      <c r="D8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="13">
+      <c r="A9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="11">
         <v>45009.9</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
+      <c r="D9" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="13">
+      <c r="A10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="11">
         <v>63050</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>24</v>
+      <c r="D10" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
@@ -912,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -931,369 +928,369 @@
     <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="7" t="s">
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="K2" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="11" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="G3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="9"/>
+    </row>
+    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="9"/>
+    </row>
+    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L7" s="9"/>
+    </row>
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="9"/>
+    </row>
+    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="9"/>
+    </row>
+    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="C10" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="L10" s="11"/>
+      <c r="I10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="L10" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1306,9 +1303,10 @@
     <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
     <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
     <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2:A10" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1316,8 +1314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1332,96 +1330,97 @@
     <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" style="6" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.28515625" style="5" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="H2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" s="11" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="K2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="9" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI4WeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI4WeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -181,6 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,49 +229,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -287,10 +288,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -325,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +483,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -491,13 +492,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -507,7 +508,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -516,7 +517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -525,7 +526,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -535,12 +536,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -571,7 +572,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -590,7 +591,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -602,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -611,10 +612,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -659,7 +660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -673,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -690,7 +691,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
@@ -700,13 +701,13 @@
       <c r="C8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -715,12 +716,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="83.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="83.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -900,13 +901,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -915,20 +916,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
@@ -969,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.15" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>49</v>
       </c>
@@ -1040,7 +1041,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>49</v>
       </c>
@@ -1076,7 +1077,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
@@ -1112,7 +1113,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>49</v>
       </c>
@@ -1148,7 +1149,7 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -1184,7 +1185,7 @@
       </c>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>49</v>
       </c>
@@ -1220,7 +1221,7 @@
       </c>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>49</v>
       </c>
@@ -1256,7 +1257,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>49</v>
       </c>
@@ -1294,24 +1295,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2:A10" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId11" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1320,20 +1321,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -1417,10 +1418,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3"/>
+    <workbookView activeTab="3" windowHeight="4515" windowWidth="14340" xWindow="390" yWindow="30"/>
   </bookViews>
   <sheets>
-    <sheet name="first" sheetId="1" r:id="rId1"/>
-    <sheet name="NI4WeeklyCat_B" sheetId="2" r:id="rId2"/>
-    <sheet name="ProcessPayrollForNIWeekly" sheetId="4" r:id="rId3"/>
-    <sheet name="TestReports" sheetId="5" r:id="rId4"/>
+    <sheet name="first" r:id="rId1" sheetId="1"/>
+    <sheet name="NI4WeeklyCat_B" r:id="rId2" sheetId="2"/>
+    <sheet name="ProcessPayrollForNIWeekly" r:id="rId3" sheetId="4"/>
+    <sheet name="TestReports" r:id="rId4" sheetId="5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
@@ -181,6 +181,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,49 +229,49 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="2">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="2"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -287,10 +288,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -325,7 +326,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,7 +378,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -482,7 +483,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -491,13 +492,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -507,7 +508,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -516,7 +517,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -525,7 +526,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -535,12 +536,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -571,7 +572,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -590,7 +591,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -602,7 +603,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -611,10 +612,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="48.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.44140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -645,7 +646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
@@ -659,7 +660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -673,7 +674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row customFormat="1" ht="45" r="5" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
@@ -690,7 +691,7 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="2"/>
       <c r="D7"/>
@@ -700,13 +701,13 @@
       <c r="C8" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -715,12 +716,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="83.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.42578125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="83.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="18.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -900,13 +901,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -915,20 +916,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="62.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="51.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="34.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="62.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="11.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
@@ -969,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="31.15" r="2" s="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -1004,7 +1005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>49</v>
       </c>
@@ -1040,7 +1041,7 @@
       </c>
       <c r="L3" s="9"/>
     </row>
-    <row r="4" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>49</v>
       </c>
@@ -1076,7 +1077,7 @@
       </c>
       <c r="L4" s="9"/>
     </row>
-    <row r="5" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>49</v>
       </c>
@@ -1112,7 +1113,7 @@
       </c>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>49</v>
       </c>
@@ -1148,7 +1149,7 @@
       </c>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>49</v>
       </c>
@@ -1184,7 +1185,7 @@
       </c>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>49</v>
       </c>
@@ -1220,7 +1221,7 @@
       </c>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>49</v>
       </c>
@@ -1256,7 +1257,7 @@
       </c>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>49</v>
       </c>
@@ -1294,24 +1295,24 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E5" r:id="rId4" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E6" r:id="rId5" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E7" r:id="rId6" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E8" r:id="rId7" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E9" r:id="rId8" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="E10" r:id="rId9" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2:A10" r:id="rId10" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId2" ref="E3"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId3" ref="E4"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId4" ref="E5"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId5" ref="E6"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId6" ref="E7"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId7" ref="E8"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId8" ref="E9"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId9" ref="E10"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId10" ref="A2:A10"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId11" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1320,20 +1321,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="53.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.28515625" style="5" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="50.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="13.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="53.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="5" width="26.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="1" s="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>20</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="27.6" r="2" s="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -1417,10 +1418,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS"/>
+    <hyperlink display="https://xcdpayrolldemo--pydemoprsb.cs83.my.salesforce.com/a0b4E000001RuhY" r:id="rId1" ref="E2"/>
+    <hyperlink display="https://xcdlightning.my.salesforce.com/a0Xb000000SsyMS" r:id="rId2" ref="A2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="9" r:id="rId3" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite 4WeeklyCatB201718.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="51">
   <si>
     <t>TC</t>
   </si>
